--- a/2022_04_28_modelRuns.xlsx
+++ b/2022_04_28_modelRuns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofnottm-my.sharepoint.com/personal/samuel_valman_nottingham_ac_uk/Documents/PhD/yr_2/01_RA2021_2022/2022_03_arctic/Permafrost_Sweden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2D57F93D-5AC3-4CF4-BF5B-863B433AF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{2D57F93D-5AC3-4CF4-BF5B-863B433AF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0B508A-D199-49BA-91CD-E67D9592CBCC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{3059473B-1735-478E-8E7C-A69AF80E0627}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Loss</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>ValueError: Can not squeeze dim[1], expected a dimension of 1, got 15 for '{{node Squeeze}} = Squeeze[T=DT_FLOAT, squeeze_dims=[-1]](IteratorGetNext:1)' with input shapes: [?,15].</t>
+  </si>
+  <si>
+    <t>CM_ID</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>Hinge</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, dense64, relu </t>
+  </si>
+  <si>
+    <t>FCM</t>
   </si>
 </sst>
 </file>
@@ -104,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,11 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,194 +477,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CB738-3E3A-4E6C-999A-4CB0CD0FD851}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="str">
-        <f>IF((F2="NO"), "N/A", "ask")</f>
+      <c r="J2" t="str">
+        <f>IF((I2="NO"), "N/A", "ask")</f>
         <v>N/A</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="str">
-        <f>IF((F3="NO"), "N/A", "ask")</f>
+      <c r="J3" t="str">
+        <f>IF((I3="NO"), "N/A", "ask")</f>
         <v>N/A</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="G6" t="str">
-        <f>IF((F6="NO"), "N/A", "?")</f>
-        <v>?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G10" si="0">IF((F7="NO"), "N/A", "?")</f>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J10" si="0">IF((I7="NO"), "N/A", "?")</f>
         <v>?</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="G8" t="str">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>?</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="G9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>?</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="G10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>?</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
